--- a/OnlineExamManagmentSystem/src/main/resources/static/student_data.xlsx
+++ b/OnlineExamManagmentSystem/src/main/resources/static/student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bffdf37e9d207c1f/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAA0BF2C-5309-4B7A-92EA-CEA51BCA95C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7073E8B4-8C66-4A23-BE6F-61C43BA08056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Student ID</t>
+  </si>
   <si>
     <t>First Name</t>
   </si>
@@ -62,7 +65,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -410,22 +412,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.53125" customWidth="1"/>
-    <col min="2" max="2" width="10.46484375" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" customWidth="1"/>
+    <col min="1" max="1" width="15.46484375" customWidth="1"/>
+    <col min="2" max="2" width="13.9296875" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="5" max="5" width="18.9296875" customWidth="1"/>
+    <col min="6" max="6" width="17.1328125" customWidth="1"/>
+    <col min="7" max="7" width="17.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -444,18 +448,15 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C16" s="1"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D3" s="1"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C89" s="1"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
